--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Dropbox\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDEF934-0C27-4695-963F-62F69FE1D6A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D76D33-0DD3-46CF-80EE-5A92315B7324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{257F5629-AE41-4951-9454-90F3175FE8D8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="145">
   <si>
     <t>Teacher</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Takes_Course</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>ENG</t>
   </si>
   <si>
@@ -384,9 +381,6 @@
   </si>
   <si>
     <t>Niamh</t>
-  </si>
-  <si>
-    <t>course_start_date</t>
   </si>
   <si>
     <t>491635558182</t>
@@ -837,7 +831,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -915,6 +908,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1450,22 +1444,16 @@
       <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="61" t="s">
         <v>22</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1496,185 +1484,185 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="19">
+        <v>31157</v>
+      </c>
+      <c r="H4" s="18">
+        <v>12345</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="26">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="19" t="s">
+      <c r="D5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="20">
-        <v>31157</v>
-      </c>
-      <c r="H4" s="19">
-        <v>12345</v>
-      </c>
-      <c r="I4" s="23" t="s">
+      <c r="G5" s="17">
+        <v>25616</v>
+      </c>
+      <c r="H5" s="12">
+        <v>23456</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="26">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="27">
-        <v>2</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="D6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="17">
+        <v>33189</v>
+      </c>
+      <c r="H6" s="12">
+        <v>34567</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="26">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="17">
+        <v>31965</v>
+      </c>
+      <c r="H7" s="12">
+        <v>45678</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="26">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="18">
-        <v>25616</v>
-      </c>
-      <c r="H5" s="13">
-        <v>23456</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="27">
-        <v>3</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="18">
-        <v>33189</v>
-      </c>
-      <c r="H6" s="13">
-        <v>34567</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="27">
-        <v>4</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="18">
-        <v>31965</v>
-      </c>
-      <c r="H7" s="13">
-        <v>45678</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="27">
-        <v>5</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="17">
+        <v>23161</v>
+      </c>
+      <c r="H8" s="12">
+        <v>56789</v>
+      </c>
+      <c r="I8" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="18">
-        <v>23161</v>
-      </c>
-      <c r="H8" s="13">
-        <v>56789</v>
-      </c>
-      <c r="I8" s="24" t="s">
+    </row>
+    <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="27">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="28">
-        <v>6</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="22">
+      <c r="G9" s="21">
         <v>34950</v>
       </c>
       <c r="H9" s="7">
         <v>67890</v>
       </c>
-      <c r="I9" s="25" t="s">
-        <v>60</v>
+      <c r="I9" s="24" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1697,73 +1685,73 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="27">
+      <c r="B13" s="26">
         <v>101</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="26">
+        <v>102</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="27">
-        <v>102</v>
-      </c>
-      <c r="C14" s="13" t="s">
+      <c r="E14" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="26">
+        <v>103</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E15" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="26">
+        <v>104</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="27">
-        <v>103</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="13" t="s">
+      <c r="E16" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="27">
-        <v>104</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="13" t="s">
+    </row>
+    <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="28">
+        <v>105</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="29">
-        <v>105</v>
-      </c>
-      <c r="C17" s="30" t="s">
+      <c r="E17" s="30" t="s">
         <v>73</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1772,262 +1760,262 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="26">
+      <c r="B21" s="25">
         <v>101</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="E21" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="20">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="26">
+        <v>102</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="21">
+      <c r="D22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="36">
+        <v>49159555740</v>
+      </c>
+      <c r="F22" s="13">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="27">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="26">
+        <v>103</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="36">
+        <v>49155555692</v>
+      </c>
+      <c r="F23" s="13">
         <v>102</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="37">
-        <v>49159555740</v>
-      </c>
-      <c r="F22" s="14">
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="26">
+        <v>104</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="36">
+        <v>4916355546</v>
+      </c>
+      <c r="F24" s="13">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="26">
+        <v>105</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="36">
+        <v>49155555779</v>
+      </c>
+      <c r="F25" s="13">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="26">
+        <v>106</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="36">
+        <v>49162555375</v>
+      </c>
+      <c r="F26" s="13">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="27">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="26">
+        <v>107</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="36">
+        <v>49177555633</v>
+      </c>
+      <c r="F27" s="13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="26">
+        <v>108</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="36">
+        <v>49151555824</v>
+      </c>
+      <c r="F28" s="13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="26">
+        <v>109</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="36">
+        <v>49162555176</v>
+      </c>
+      <c r="F29" s="13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="26">
+        <v>110</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="36">
+        <v>49151555527</v>
+      </c>
+      <c r="F30" s="13">
         <v>103</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="37">
-        <v>49155555692</v>
-      </c>
-      <c r="F23" s="14">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="27">
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="26">
+        <v>111</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="36">
+        <v>49178555311</v>
+      </c>
+      <c r="F31" s="13">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="26">
+        <v>112</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="36">
+        <v>49152555195</v>
+      </c>
+      <c r="F32" s="13">
         <v>104</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="37">
-        <v>4916355546</v>
-      </c>
-      <c r="F24" s="14">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="27">
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="26">
+        <v>113</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="36">
+        <v>49177555355</v>
+      </c>
+      <c r="F33" s="13">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="28">
+        <v>114</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="37">
+        <v>49155555581</v>
+      </c>
+      <c r="F34" s="30">
         <v>105</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="37">
-        <v>49155555779</v>
-      </c>
-      <c r="F25" s="14">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="27">
-        <v>106</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="37">
-        <v>49162555375</v>
-      </c>
-      <c r="F26" s="14">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="27">
-        <v>107</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="37">
-        <v>49177555633</v>
-      </c>
-      <c r="F27" s="14">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="27">
-        <v>108</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="37">
-        <v>49151555824</v>
-      </c>
-      <c r="F28" s="14">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="27">
-        <v>109</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="37">
-        <v>49162555176</v>
-      </c>
-      <c r="F29" s="14">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="27">
-        <v>110</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="37">
-        <v>49151555527</v>
-      </c>
-      <c r="F30" s="14">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="27">
-        <v>111</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="37">
-        <v>49178555311</v>
-      </c>
-      <c r="F31" s="14">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="27">
-        <v>112</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" s="37">
-        <v>49152555195</v>
-      </c>
-      <c r="F32" s="14">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="27">
-        <v>113</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="37">
-        <v>49177555355</v>
-      </c>
-      <c r="F33" s="14">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="29">
-        <v>114</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="38">
-        <v>49155555581</v>
-      </c>
-      <c r="F34" s="31">
-        <v>105</v>
-      </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="35"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -2041,292 +2029,292 @@
       </c>
     </row>
     <row r="37" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="33" t="s">
+      <c r="F37" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G37" s="33" t="s">
+      <c r="G37" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="H37" s="33" t="s">
+      <c r="H37" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I37" s="40" t="s">
+      <c r="I37" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="J37" s="34" t="s">
+      <c r="J37" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="26">
+      <c r="B38" s="25">
         <v>12</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="18">
+        <v>10</v>
+      </c>
+      <c r="G38" s="19">
+        <v>43862</v>
+      </c>
+      <c r="H38" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" s="18">
+        <v>1</v>
+      </c>
+      <c r="J38" s="20">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="26">
+        <v>13</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="19" t="s">
+      <c r="F39" s="12">
+        <v>40</v>
+      </c>
+      <c r="G39" s="40">
+        <v>43781</v>
+      </c>
+      <c r="H39" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="12">
+        <v>6</v>
+      </c>
+      <c r="J39" s="13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="26">
+        <v>14</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="12">
+        <v>40</v>
+      </c>
+      <c r="G40" s="40">
+        <v>43781</v>
+      </c>
+      <c r="H40" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" s="12">
+        <v>6</v>
+      </c>
+      <c r="J40" s="13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="26">
+        <v>15</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F41" s="12">
+        <v>40</v>
+      </c>
+      <c r="G41" s="40">
+        <v>43781</v>
+      </c>
+      <c r="H41" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" s="12">
+        <v>6</v>
+      </c>
+      <c r="J41" s="13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="26">
+        <v>16</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" s="12">
+        <v>15</v>
+      </c>
+      <c r="G42" s="40">
+        <v>43845</v>
+      </c>
+      <c r="H42" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" s="12">
+        <v>3</v>
+      </c>
+      <c r="J42" s="13">
         <v>103</v>
       </c>
-      <c r="F38" s="19">
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="26">
+        <v>17</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="12">
+        <v>18</v>
+      </c>
+      <c r="G43" s="40">
+        <v>43924</v>
+      </c>
+      <c r="H43" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" s="12">
+        <v>2</v>
+      </c>
+      <c r="J43" s="13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="26">
+        <v>18</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" s="12">
+        <v>8</v>
+      </c>
+      <c r="G44" s="40">
+        <v>43875</v>
+      </c>
+      <c r="H44" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" s="12">
+        <v>4</v>
+      </c>
+      <c r="J44" s="13">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="26">
+        <v>19</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="12">
         <v>10</v>
       </c>
-      <c r="G38" s="20">
-        <v>43862</v>
-      </c>
-      <c r="H38" s="20" t="b">
+      <c r="G45" s="40">
+        <v>43919</v>
+      </c>
+      <c r="H45" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" s="12">
         <v>1</v>
       </c>
-      <c r="I38" s="19">
-        <v>1</v>
-      </c>
-      <c r="J38" s="21">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="27">
-        <v>13</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F39" s="13">
-        <v>40</v>
-      </c>
-      <c r="G39" s="41">
-        <v>43781</v>
-      </c>
-      <c r="H39" s="41" t="b">
+      <c r="J45" s="13">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="28">
+        <v>20</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" s="29">
+        <v>4</v>
+      </c>
+      <c r="G46" s="41">
+        <v>43929</v>
+      </c>
+      <c r="H46" s="41" t="b">
         <v>0</v>
       </c>
-      <c r="I39" s="13">
-        <v>6</v>
-      </c>
-      <c r="J39" s="14">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="27">
-        <v>14</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F40" s="13">
-        <v>40</v>
-      </c>
-      <c r="G40" s="41">
-        <v>43781</v>
-      </c>
-      <c r="H40" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" s="13">
-        <v>6</v>
-      </c>
-      <c r="J40" s="14">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="27">
-        <v>15</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" s="13">
-        <v>40</v>
-      </c>
-      <c r="G41" s="41">
-        <v>43781</v>
-      </c>
-      <c r="H41" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" s="13">
-        <v>6</v>
-      </c>
-      <c r="J41" s="14">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="27">
-        <v>16</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F42" s="13">
-        <v>15</v>
-      </c>
-      <c r="G42" s="41">
-        <v>43845</v>
-      </c>
-      <c r="H42" s="41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" s="13">
-        <v>3</v>
-      </c>
-      <c r="J42" s="14">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="27">
-        <v>17</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F43" s="13">
-        <v>18</v>
-      </c>
-      <c r="G43" s="41">
-        <v>43924</v>
-      </c>
-      <c r="H43" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" s="13">
-        <v>2</v>
-      </c>
-      <c r="J43" s="14">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="27">
-        <v>18</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F44" s="13">
-        <v>8</v>
-      </c>
-      <c r="G44" s="41">
-        <v>43875</v>
-      </c>
-      <c r="H44" s="41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I44" s="13">
-        <v>4</v>
-      </c>
-      <c r="J44" s="14">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="27">
-        <v>19</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F45" s="13">
-        <v>10</v>
-      </c>
-      <c r="G45" s="41">
-        <v>43919</v>
-      </c>
-      <c r="H45" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" s="13">
-        <v>1</v>
-      </c>
-      <c r="J45" s="14">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="29">
-        <v>20</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="F46" s="30">
-        <v>4</v>
-      </c>
-      <c r="G46" s="42">
-        <v>43929</v>
-      </c>
-      <c r="H46" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" s="30">
+      <c r="I46" s="29">
         <v>5</v>
       </c>
-      <c r="J46" s="31">
+      <c r="J46" s="30">
         <v>103</v>
       </c>
     </row>
@@ -2336,146 +2324,146 @@
       </c>
     </row>
     <row r="49" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="42" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B50" s="26">
+      <c r="B50" s="25">
         <v>101</v>
       </c>
-      <c r="C50" s="44">
+      <c r="C50" s="43">
         <v>15</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B51" s="27">
+      <c r="B51" s="26">
         <v>101</v>
       </c>
-      <c r="C51" s="45">
+      <c r="C51" s="44">
         <v>17</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B52" s="27">
+      <c r="B52" s="26">
         <v>102</v>
       </c>
-      <c r="C52" s="45">
+      <c r="C52" s="44">
         <v>17</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B53" s="27">
+      <c r="B53" s="26">
         <v>103</v>
       </c>
-      <c r="C53" s="45">
+      <c r="C53" s="44">
         <v>18</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B54" s="27">
+      <c r="B54" s="26">
         <v>104</v>
       </c>
-      <c r="C54" s="45">
+      <c r="C54" s="44">
         <v>18</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B55" s="27">
+      <c r="B55" s="26">
         <v>105</v>
       </c>
-      <c r="C55" s="45">
+      <c r="C55" s="44">
         <v>18</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B56" s="27">
+      <c r="B56" s="26">
         <v>106</v>
       </c>
-      <c r="C56" s="45">
+      <c r="C56" s="44">
         <v>13</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B57" s="27">
+      <c r="B57" s="26">
         <v>107</v>
       </c>
-      <c r="C57" s="45">
+      <c r="C57" s="44">
         <v>13</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B58" s="27">
+      <c r="B58" s="26">
         <v>108</v>
       </c>
-      <c r="C58" s="45">
+      <c r="C58" s="44">
         <v>13</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B59" s="27">
+      <c r="B59" s="26">
         <v>109</v>
       </c>
-      <c r="C59" s="45">
+      <c r="C59" s="44">
         <v>14</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B60" s="27">
+      <c r="B60" s="26">
         <v>109</v>
       </c>
-      <c r="C60" s="45">
+      <c r="C60" s="44">
         <v>15</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B61" s="27">
+      <c r="B61" s="26">
         <v>110</v>
       </c>
-      <c r="C61" s="45">
+      <c r="C61" s="44">
         <v>16</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B62" s="27">
+      <c r="B62" s="26">
         <v>110</v>
       </c>
-      <c r="C62" s="45">
+      <c r="C62" s="44">
         <v>20</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B63" s="27">
+      <c r="B63" s="26">
         <v>111</v>
       </c>
-      <c r="C63" s="45">
+      <c r="C63" s="44">
         <v>16</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B64" s="27">
+      <c r="B64" s="26">
         <v>114</v>
       </c>
-      <c r="C64" s="45">
+      <c r="C64" s="44">
         <v>12</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B65" s="27">
+      <c r="B65" s="26">
         <v>112</v>
       </c>
-      <c r="C65" s="45">
+      <c r="C65" s="44">
         <v>19</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="29">
+      <c r="B66" s="28">
         <v>113</v>
       </c>
-      <c r="C66" s="46">
+      <c r="C66" s="45">
         <v>19</v>
       </c>
     </row>
@@ -2503,340 +2491,340 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="61"/>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="61"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="G3" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="60"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="60"/>
+      <c r="B4" s="46">
+        <v>101</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="48">
+        <v>40</v>
+      </c>
+      <c r="G4" s="49">
+        <v>90</v>
+      </c>
+      <c r="H4" s="60"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="60"/>
+      <c r="B5" s="46">
+        <v>101</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="48">
+        <v>40</v>
+      </c>
+      <c r="G5" s="49">
+        <v>90</v>
+      </c>
+      <c r="H5" s="60"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="60"/>
+      <c r="B6" s="46">
+        <v>102</v>
+      </c>
+      <c r="C6" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" s="56" t="s">
+      <c r="D6" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="48">
+        <v>25</v>
+      </c>
+      <c r="G6" s="49">
+        <v>75</v>
+      </c>
+      <c r="H6" s="60"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="60"/>
+      <c r="B7" s="50">
+        <v>103</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="52">
+        <v>7</v>
+      </c>
+      <c r="G7" s="53">
+        <v>30</v>
+      </c>
+      <c r="H7" s="60"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="60"/>
+      <c r="B10" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="C10" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="60"/>
+      <c r="B11" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="61"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="61"/>
-      <c r="B4" s="47">
-        <v>101</v>
-      </c>
-      <c r="C4" s="58" t="s">
+      <c r="C11" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="60"/>
+      <c r="B12" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="60"/>
+      <c r="B13" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="F4" s="49">
-        <v>40</v>
-      </c>
-      <c r="G4" s="50">
-        <v>90</v>
-      </c>
-      <c r="H4" s="61"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="61"/>
-      <c r="B5" s="47">
-        <v>101</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="49">
-        <v>40</v>
-      </c>
-      <c r="G5" s="50">
-        <v>90</v>
-      </c>
-      <c r="H5" s="61"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="61"/>
-      <c r="B6" s="47">
-        <v>102</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6" s="49">
-        <v>25</v>
-      </c>
-      <c r="G6" s="50">
-        <v>75</v>
-      </c>
-      <c r="H6" s="61"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="61"/>
-      <c r="B7" s="51">
-        <v>103</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" s="53">
-        <v>7</v>
-      </c>
-      <c r="G7" s="54">
-        <v>30</v>
-      </c>
-      <c r="H7" s="61"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="61"/>
-      <c r="B10" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="56" t="s">
+      <c r="C13" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="60"/>
+      <c r="B14" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="D10" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="61"/>
-      <c r="B11" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="61"/>
-      <c r="B12" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="48" t="s">
+      <c r="C14" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E14" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="61"/>
-      <c r="B13" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="61"/>
-      <c r="B14" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="61"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="61"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="61"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="61"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Dropbox\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D76D33-0DD3-46CF-80EE-5A92315B7324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D454BC4-2622-4F14-94FB-20C3B81A5902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{257F5629-AE41-4951-9454-90F3175FE8D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
-    <sheet name="DB" sheetId="2" r:id="rId2"/>
+    <sheet name="ILS DB" sheetId="2" r:id="rId2"/>
     <sheet name="Initial Retail Examples" sheetId="3" r:id="rId3"/>
+    <sheet name="Tables for Joins" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="155">
   <si>
     <t>Teacher</t>
   </si>
@@ -468,6 +470,36 @@
   </si>
   <si>
     <t>Suzanne Jones</t>
+  </si>
+  <si>
+    <t>Industry Prospects</t>
+  </si>
+  <si>
+    <t>Outlook</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Hospitality</t>
+  </si>
+  <si>
+    <t>Tourism</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>Industry</t>
   </si>
 </sst>
 </file>
@@ -818,7 +850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -909,6 +941,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1223,7 +1257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F892D7C5-64CF-4ED1-AD1B-F81CF5EC7216}">
-  <dimension ref="B3:J21"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1234,12 +1268,61 @@
     <col min="7" max="9" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="60"/>
+      <c r="B3" s="62" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="60"/>
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1264,8 +1347,15 @@
       <c r="I4" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="60"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
@@ -1290,13 +1380,51 @@
       <c r="I5" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="60"/>
+      <c r="B7" s="62" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="60"/>
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1309,8 +1437,19 @@
       <c r="E8" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="60"/>
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
@@ -1323,13 +1462,55 @@
       <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+    </row>
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="60"/>
+      <c r="B11" s="62" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="60"/>
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
@@ -1345,8 +1526,18 @@
       <c r="F12" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="60"/>
       <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
@@ -1362,22 +1553,54 @@
       <c r="F13" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="1" t="s">
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="60"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+    </row>
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="60"/>
+      <c r="B15" s="62" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="60"/>
       <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
@@ -1405,8 +1628,14 @@
       <c r="J16" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+    </row>
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="60"/>
       <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
@@ -1434,27 +1663,407 @@
       <c r="J17" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="1" t="s">
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+    </row>
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="60"/>
+      <c r="B19" s="62" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="60"/>
       <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="61" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+    </row>
+    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="60"/>
       <c r="B21" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="60"/>
+      <c r="O38" s="60"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="60"/>
+      <c r="O39" s="60"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" s="60"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A41" s="60"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42" s="60"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2833,4 +3442,507 @@
     <brk id="9" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136DE010-2A14-475F-BB87-2159298F3167}">
+  <dimension ref="A1:AL18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="60"/>
+    <col min="2" max="2" width="18.7265625" style="60" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.36328125" style="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" style="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="60"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+    </row>
+    <row r="2" spans="1:38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+    </row>
+    <row r="3" spans="1:38" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="60"/>
+      <c r="B3" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+    </row>
+    <row r="4" spans="1:38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="60"/>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+    </row>
+    <row r="5" spans="1:38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="60"/>
+      <c r="B5" s="26">
+        <v>101</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+    </row>
+    <row r="6" spans="1:38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="60"/>
+      <c r="B6" s="26">
+        <v>102</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+    </row>
+    <row r="7" spans="1:38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="60"/>
+      <c r="B7" s="26">
+        <v>103</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+    </row>
+    <row r="8" spans="1:38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="60"/>
+      <c r="B8" s="26">
+        <v>104</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+    </row>
+    <row r="9" spans="1:38" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="60"/>
+      <c r="B9" s="28">
+        <v>105</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+    </row>
+    <row r="10" spans="1:38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="60"/>
+      <c r="AH10" s="60"/>
+      <c r="AI10" s="60"/>
+      <c r="AJ10" s="60"/>
+      <c r="AK10" s="60"/>
+      <c r="AL10" s="60"/>
+    </row>
+    <row r="11" spans="1:38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="60"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="60"/>
+      <c r="AC11" s="60"/>
+      <c r="AD11" s="60"/>
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="60"/>
+      <c r="AG11" s="60"/>
+      <c r="AH11" s="60"/>
+      <c r="AI11" s="60"/>
+      <c r="AJ11" s="60"/>
+      <c r="AK11" s="60"/>
+      <c r="AL11" s="60"/>
+    </row>
+    <row r="12" spans="1:38" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="60"/>
+      <c r="B12" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="60"/>
+      <c r="AE12" s="60"/>
+      <c r="AF12" s="60"/>
+      <c r="AG12" s="60"/>
+      <c r="AH12" s="60"/>
+      <c r="AI12" s="60"/>
+      <c r="AJ12" s="60"/>
+      <c r="AK12" s="60"/>
+      <c r="AL12" s="60"/>
+    </row>
+    <row r="13" spans="1:38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="60"/>
+      <c r="B13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+    </row>
+    <row r="14" spans="1:38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="60"/>
+      <c r="B14" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+    </row>
+    <row r="15" spans="1:38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="60"/>
+      <c r="B15" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+    </row>
+    <row r="16" spans="1:38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="60"/>
+      <c r="B16" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+    </row>
+    <row r="17" spans="1:17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="60"/>
+      <c r="B17" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+    </row>
+    <row r="18" spans="1:17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="60"/>
+      <c r="B18" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>